--- a/Test/Micro Plan - TB-408 Sep'25.xlsx
+++ b/Test/Micro Plan - TB-408 Sep'25.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranjanr33\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaushikb\Documents\Work\Git\Office-work-\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365253FE-FBFC-4813-987C-E4DF322A96EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D577144C-B8E6-4A81-9CD7-46CDAA23ED27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="757" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="757" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FDN-June25" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Stub dispatch" sheetId="4" state="hidden" r:id="rId2"/>
-    <sheet name="Erection-Sep25" sheetId="2" r:id="rId3"/>
+    <sheet name="Erection-Oct25" sheetId="2" r:id="rId3"/>
     <sheet name="STG-Sep25" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Erection-Sep25'!$A$1:$O$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Erection-Oct25'!$A$1:$O$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FDN-June25'!$A$18:$P$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -580,14 +580,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d/mmm/yy;@"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="168" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="#,##0.000"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1040,14 +1040,14 @@
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
@@ -1067,7 +1067,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1111,13 +1111,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,25 +1126,25 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1153,31 +1153,31 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1186,13 +1186,13 @@
     <xf numFmtId="17" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1207,7 +1207,7 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1222,41 +1222,41 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="6" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="17" fillId="6" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="17" fillId="6" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="6" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="17" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1284,7 +1284,7 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="8" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="18" fillId="8" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1297,7 +1297,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1315,7 +1315,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1324,16 +1324,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1345,16 +1345,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1369,7 +1369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1408,22 +1408,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1432,7 +1432,7 @@
     <xf numFmtId="2" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1444,7 +1444,7 @@
     <xf numFmtId="2" fontId="26" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1459,7 +1459,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1483,16 +1483,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1504,69 +1504,99 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1582,6 +1612,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1590,42 +1623,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -1657,7 +1654,12 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="7" xr:uid="{36A5E538-A591-4B85-8561-9BC706E69FE8}"/>
   </cellStyles>
-  <dxfs count="413">
+  <dxfs count="237">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1680,6 +1682,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1690,6 +1702,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1700,6 +1752,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1720,6 +1782,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1730,6 +1812,76 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1790,6 +1942,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1800,6 +1992,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1810,6 +2042,76 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1830,6 +2132,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1840,6 +2162,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1850,6 +2212,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1860,6 +2242,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1920,6 +2322,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1930,6 +2352,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1950,6 +2392,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1970,6 +2432,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1980,6 +2452,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1990,6 +2472,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2010,6 +2532,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2030,6 +2592,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2040,6 +2612,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2080,6 +2692,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2090,6 +2722,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2110,6 +2752,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2120,6 +2772,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2130,6 +2802,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2140,6 +2832,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2160,6 +2862,106 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2170,6 +2972,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2180,6 +3002,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2200,6 +3032,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2210,6 +3052,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2220,6 +3072,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2230,6 +3122,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2240,6 +3142,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2280,6 +3212,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2360,6 +3322,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2370,6 +3372,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2380,6 +3402,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2410,16 +3442,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2430,26 +3452,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2460,16 +3462,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2477,2761 +3469,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5475,6 +3712,16 @@
     </dxf>
     <dxf>
       <font>
+        <color indexed="17"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color indexed="20"/>
       </font>
       <fill>
@@ -5497,16 +3744,6 @@
       <font>
         <color indexed="20"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -6062,38 +4299,38 @@
       <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" style="4" customWidth="1"/>
     <col min="2" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="3.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="3.140625" style="1" customWidth="1"/>
-    <col min="20" max="25" width="8.7109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="3.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7265625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3.1796875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.54296875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="3.1796875" style="1" customWidth="1"/>
+    <col min="20" max="25" width="8.7265625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="3.1796875" style="1" customWidth="1"/>
     <col min="27" max="27" width="15" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15.5703125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="17.140625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.85546875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="17.140625" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="1"/>
+    <col min="28" max="28" width="15.54296875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="17.1796875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.81640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7265625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15.54296875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="17.1796875" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -6101,7 +4338,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -6109,11 +4346,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
@@ -6129,7 +4366,7 @@
       <c r="L4" s="82"/>
       <c r="M4" s="83"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -6140,7 +4377,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="D6" s="2" t="s">
         <v>87</v>
@@ -6151,7 +4388,7 @@
       <c r="K6" s="3"/>
       <c r="M6" s="98"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="D7" s="2" t="s">
         <v>2</v>
@@ -6163,11 +4400,11 @@
       <c r="K7" s="3"/>
       <c r="M7" s="98"/>
     </row>
-    <row r="8" spans="1:13" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -6188,13 +4425,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
@@ -6218,7 +4455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="D12" s="2" t="s">
         <v>25</v>
@@ -6240,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="D13" s="2" t="s">
         <v>26</v>
@@ -6262,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="D14" s="2" t="s">
         <v>27</v>
@@ -6284,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="D15" s="28" t="s">
         <v>28</v>
@@ -6306,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -6330,144 +4567,144 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="166" t="s">
+    <row r="18" spans="1:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="166" t="s">
+      <c r="B18" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="162" t="s">
+      <c r="C18" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="166" t="s">
+      <c r="D18" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="162" t="s">
+      <c r="E18" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="162" t="s">
+      <c r="F18" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="166" t="s">
+      <c r="G18" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="153" t="s">
+      <c r="H18" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="156" t="s">
+      <c r="I18" s="173"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="173"/>
+      <c r="L18" s="173"/>
+      <c r="M18" s="173"/>
+      <c r="N18" s="173"/>
+      <c r="O18" s="173"/>
+      <c r="P18" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="R18" s="162" t="s">
+      <c r="R18" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="T18" s="157" t="s">
+      <c r="T18" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="158"/>
-      <c r="V18" s="158"/>
-      <c r="W18" s="158"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="159"/>
-      <c r="AA18" s="157" t="s">
+      <c r="U18" s="168"/>
+      <c r="V18" s="168"/>
+      <c r="W18" s="168"/>
+      <c r="X18" s="168"/>
+      <c r="Y18" s="169"/>
+      <c r="AA18" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="AB18" s="158"/>
-      <c r="AC18" s="158"/>
-      <c r="AD18" s="158"/>
-      <c r="AE18" s="158"/>
-      <c r="AF18" s="159"/>
-      <c r="AG18" s="160" t="s">
+      <c r="AB18" s="168"/>
+      <c r="AC18" s="168"/>
+      <c r="AD18" s="168"/>
+      <c r="AE18" s="168"/>
+      <c r="AF18" s="169"/>
+      <c r="AG18" s="170" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="167"/>
-      <c r="B19" s="167"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="152" t="s">
+    <row r="19" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="162"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="152"/>
-      <c r="J19" s="152" t="s">
+      <c r="I19" s="178"/>
+      <c r="J19" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="152"/>
-      <c r="L19" s="152" t="s">
+      <c r="K19" s="178"/>
+      <c r="L19" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="152"/>
-      <c r="N19" s="150" t="s">
+      <c r="M19" s="178"/>
+      <c r="N19" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="O19" s="150" t="s">
+      <c r="O19" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="P19" s="156"/>
-      <c r="R19" s="163"/>
-      <c r="T19" s="154" t="s">
+      <c r="P19" s="166"/>
+      <c r="R19" s="172"/>
+      <c r="T19" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="U19" s="154" t="s">
+      <c r="U19" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="V19" s="154" t="s">
+      <c r="V19" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="W19" s="154" t="s">
+      <c r="W19" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="X19" s="154" t="s">
+      <c r="X19" s="164" t="s">
         <v>28</v>
       </c>
       <c r="Y19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AA19" s="154" t="s">
+      <c r="AA19" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="AB19" s="154" t="s">
+      <c r="AB19" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="AC19" s="154" t="s">
+      <c r="AC19" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="AD19" s="154" t="s">
+      <c r="AD19" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="AE19" s="154" t="s">
+      <c r="AE19" s="164" t="s">
         <v>28</v>
       </c>
       <c r="AF19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AG19" s="161"/>
-    </row>
-    <row r="20" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="168"/>
-      <c r="B20" s="167"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="167"/>
+      <c r="AG19" s="171"/>
+    </row>
+    <row r="20" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="163"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="162"/>
       <c r="H20" s="94" t="s">
         <v>10</v>
       </c>
@@ -6486,25 +4723,25 @@
       <c r="M20" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="151"/>
-      <c r="O20" s="151"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="175"/>
       <c r="P20" s="44" t="s">
         <v>51</v>
       </c>
       <c r="R20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="T20" s="155"/>
-      <c r="U20" s="155"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
+      <c r="T20" s="165"/>
+      <c r="U20" s="165"/>
+      <c r="V20" s="165"/>
+      <c r="W20" s="165"/>
+      <c r="X20" s="165"/>
       <c r="Y20" s="19"/>
-      <c r="AA20" s="155"/>
-      <c r="AB20" s="155"/>
-      <c r="AC20" s="155"/>
-      <c r="AD20" s="155"/>
-      <c r="AE20" s="155"/>
+      <c r="AA20" s="165"/>
+      <c r="AB20" s="165"/>
+      <c r="AC20" s="165"/>
+      <c r="AD20" s="165"/>
+      <c r="AE20" s="165"/>
       <c r="AF20" s="19" t="s">
         <v>51</v>
       </c>
@@ -6512,7 +4749,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="97">
         <v>1</v>
       </c>
@@ -6604,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="97">
         <v>2</v>
       </c>
@@ -6650,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="97">
         <v>3</v>
       </c>
@@ -6708,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="97">
         <v>4</v>
       </c>
@@ -6766,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="97">
         <v>5</v>
       </c>
@@ -6775,7 +5012,7 @@
       <c r="D25" s="86"/>
       <c r="E25" s="102"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="148"/>
+      <c r="G25" s="176"/>
       <c r="H25" s="100"/>
       <c r="I25" s="100"/>
       <c r="J25" s="100"/>
@@ -6824,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="97">
         <v>6</v>
       </c>
@@ -6833,7 +5070,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="103"/>
       <c r="F26" s="97"/>
-      <c r="G26" s="149"/>
+      <c r="G26" s="177"/>
       <c r="H26" s="100"/>
       <c r="I26" s="100"/>
       <c r="J26" s="100"/>
@@ -6882,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="97">
         <v>7</v>
       </c>
@@ -6940,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="97"/>
       <c r="B28" s="104"/>
       <c r="C28" s="104"/>
@@ -6996,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" ht="20.149999999999999" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" s="92"/>
       <c r="C29" s="93"/>
@@ -7052,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -7132,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="N32" s="55" t="s">
         <v>85</v>
       </c>
@@ -7141,7 +5378,7 @@
         <v>7224.33</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" s="76"/>
       <c r="C33" s="76"/>
       <c r="D33" s="77"/>
@@ -7159,7 +5396,7 @@
         <v>7782.57</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="78"/>
       <c r="C34" s="76"/>
       <c r="D34" s="77"/>
@@ -7188,13 +5425,16 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="29">
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
     <mergeCell ref="X19:X20"/>
     <mergeCell ref="P18:P19"/>
     <mergeCell ref="AA18:AF18"/>
@@ -7207,166 +5447,163 @@
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="T18:Y18"/>
     <mergeCell ref="T19:T20"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="412" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="411" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="410" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="409" priority="4"/>
-    <cfRule type="expression" dxfId="408" priority="5" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="236" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="4"/>
+    <cfRule type="expression" dxfId="232" priority="5" stopIfTrue="1">
       <formula>AND(COUNTIF($D$28:$D$37, B21)+COUNTIF($D$16:$D$16, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="407" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="6" stopIfTrue="1">
       <formula>AND(COUNTIF($D$28:$D$65380, B21)+COUNTIF($D$1:$D$16, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="7" stopIfTrue="1">
       <formula>AND(COUNTIF($D$17:$D$65380, B21)+COUNTIF($D$1:$D$16, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="8" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$123, B21)+COUNTIF($D$142:$D$65380, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="9" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$191, B21)+COUNTIF($D$214:$D$65380, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="10" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$191, B21)+COUNTIF($D$214:$D$65380, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="11" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$191, B21)+COUNTIF($D$214:$D$65380, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="12" stopIfTrue="1">
       <formula>AND(COUNTIF($D$474:$D$65380, B21)+COUNTIF($D$454:$D$455, B21)+COUNTIF($D$416:$D$417, B21)+COUNTIF($D$374:$D$377, B21)+COUNTIF($D$351:$D$352, B21)+COUNTIF($D$324:$D$325, B21)+COUNTIF($D$303:$D$303, B21)+COUNTIF($D$288:$D$289, B21)+COUNTIF($D$263:$D$263, B21)+COUNTIF($D$252:$D$253, B21)+COUNTIF($D$233:$D$234, B21)+COUNTIF($D$51:$D$218, B21)+COUNTIF($D$219:$D$220, B21)+COUNTIF($D$1:$D$50, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B27">
-    <cfRule type="duplicateValues" dxfId="400" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="399" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="398" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="397" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="396" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="395" priority="20"/>
-    <cfRule type="expression" dxfId="394" priority="1251" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="220" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="20"/>
+    <cfRule type="expression" dxfId="218" priority="1251" stopIfTrue="1">
       <formula>AND(COUNTIF($C$2:$C$65291, B23)+COUNTIF(#REF!, B23)&gt;1,NOT(ISBLANK(B23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="1252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="1252" stopIfTrue="1">
       <formula>AND(COUNTIF($C$145:$C$65291, B23)+COUNTIF($C$125:$C$126, B23)+COUNTIF($C$87:$C$88, B23)+COUNTIF($C$45:$C$48, B23)+COUNTIF(#REF!, B23)+COUNTIF(#REF!, B23)+COUNTIF(#REF!, B23)+COUNTIF(#REF!, B23)+COUNTIF(#REF!, B23)+COUNTIF(#REF!, B23)+COUNTIF(#REF!, B23)+COUNTIF(#REF!, B23)+COUNTIF($B$9:$B$9, B23)+COUNTIF($C$2:$C$8, B23)&gt;1,NOT(ISBLANK(B23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27 B21 B23">
-    <cfRule type="expression" dxfId="392" priority="1248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="1248" stopIfTrue="1">
       <formula>AND(COUNTIF($C$1:$C$65282, B21)+COUNTIF(#REF!, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27 B23 B21">
-    <cfRule type="expression" dxfId="391" priority="1236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="1236" stopIfTrue="1">
       <formula>AND(COUNTIF($C$136:$C$65282, B21)+COUNTIF($C$116:$C$117, B21)+COUNTIF($C$78:$C$79, B21)+COUNTIF($C$36:$C$39, B21)+COUNTIF($C$23:$C$24, B21)+COUNTIF(#REF!, B21)+COUNTIF(#REF!, B21)+COUNTIF(#REF!, B21)+COUNTIF(#REF!, B21)+COUNTIF(#REF!, B21)+COUNTIF(#REF!, B21)+COUNTIF(#REF!, B21)+COUNTIF(#REF!, B21)+COUNTIF($C$1:$C$5, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="duplicateValues" dxfId="390" priority="1239"/>
-    <cfRule type="expression" dxfId="389" priority="1240" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="214" priority="1239"/>
+    <cfRule type="expression" dxfId="213" priority="1240" stopIfTrue="1">
       <formula>AND(COUNTIF($D$28:$D$37, B26)+COUNTIF($D$16:$D$16, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="1241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="1241" stopIfTrue="1">
       <formula>AND(COUNTIF($D$28:$D$65380, B26)+COUNTIF($D$1:$D$16, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="1242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="1242" stopIfTrue="1">
       <formula>AND(COUNTIF($D$17:$D$65380, B26)+COUNTIF($D$1:$D$16, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="1243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="1243" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$123, B26)+COUNTIF($D$142:$D$65380, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="1244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="1245" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$191, B26)+COUNTIF($D$214:$D$65380, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="1245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="1246" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$191, B26)+COUNTIF($D$214:$D$65380, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="383" priority="1246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="1247" stopIfTrue="1">
+      <formula>AND(COUNTIF($D$474:$D$65380, B26)+COUNTIF($D$454:$D$455, B26)+COUNTIF($D$416:$D$417, B26)+COUNTIF($D$374:$D$377, B26)+COUNTIF($D$351:$D$352, B26)+COUNTIF($D$324:$D$325, B26)+COUNTIF($D$303:$D$303, B26)+COUNTIF($D$288:$D$289, B26)+COUNTIF($D$263:$D$263, B26)+COUNTIF($D$252:$D$253, B26)+COUNTIF($D$233:$D$234, B26)+COUNTIF($D$51:$D$218, B26)+COUNTIF($D$219:$D$220, B26)+COUNTIF($D$1:$D$50, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="1244" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$191, B26)+COUNTIF($D$214:$D$65380, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="382" priority="1247" stopIfTrue="1">
-      <formula>AND(COUNTIF($D$474:$D$65380, B26)+COUNTIF($D$454:$D$455, B26)+COUNTIF($D$416:$D$417, B26)+COUNTIF($D$374:$D$377, B26)+COUNTIF($D$351:$D$352, B26)+COUNTIF($D$324:$D$325, B26)+COUNTIF($D$303:$D$303, B26)+COUNTIF($D$288:$D$289, B26)+COUNTIF($D$263:$D$263, B26)+COUNTIF($D$252:$D$253, B26)+COUNTIF($D$233:$D$234, B26)+COUNTIF($D$51:$D$218, B26)+COUNTIF($D$219:$D$220, B26)+COUNTIF($D$1:$D$50, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="381" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="380" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="379" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="378" priority="1190"/>
-    <cfRule type="duplicateValues" dxfId="377" priority="1191"/>
-    <cfRule type="duplicateValues" dxfId="376" priority="1192"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="1190"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="1191"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="1192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B1048576 B1:B20">
-    <cfRule type="duplicateValues" dxfId="375" priority="347"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="347"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="374" priority="1220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="1221" stopIfTrue="1">
+      <formula>AND(COUNTIF($C$1:$C$65460, L4)+COUNTIF(#REF!, L4)&gt;1,NOT(ISBLANK(L4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="197" priority="1220" stopIfTrue="1">
       <formula>AND(COUNTIF($C$314:$C$65460, L4)+COUNTIF($C$294:$C$295, L4)+COUNTIF($C$256:$C$257, L4)+COUNTIF($C$214:$C$217, L4)+COUNTIF($C$191:$C$192, L4)+COUNTIF($C$164:$C$165, L4)+COUNTIF($C$143:$C$143, L4)+COUNTIF($C$128:$C$129, L4)+COUNTIF($C$103:$C$103, L4)+COUNTIF($C$92:$C$93, L4)+COUNTIF($C$73:$C$74, L4)+COUNTIF($C$29:$C$56, L4)+COUNTIF($C$58:$C$60, L4)+COUNTIF($C$1:$C$27, L4)&gt;1,NOT(ISBLANK(L4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="373" priority="1221" stopIfTrue="1">
-      <formula>AND(COUNTIF($C$1:$C$65460, L4)+COUNTIF(#REF!, L4)&gt;1,NOT(ISBLANK(L4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="372" priority="1222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="1223" stopIfTrue="1">
+      <formula>AND(COUNTIF($D$314:$D$65460, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF($D$294:$D$295, M4)+COUNTIF($D$256:$D$257, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="1224" stopIfTrue="1">
+      <formula>AND(COUNTIF($D$294:$D$65460, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF($D$256:$D$257, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="1225" stopIfTrue="1">
+      <formula>AND(COUNTIF($D$256:$D$65460, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="1226" stopIfTrue="1">
+      <formula>AND(COUNTIF($D$214:$D$65460, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="1227" stopIfTrue="1">
+      <formula>AND(COUNTIF($D$214:$D$65460, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$51:$D$51, M4)+COUNTIF($D$53:$D$60, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="191" priority="1228" stopIfTrue="1">
+      <formula>AND(COUNTIF($D$191:$D$65460, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$51:$D$51, M4)+COUNTIF($D$53:$D$60, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="1229" stopIfTrue="1">
+      <formula>AND(COUNTIF($F$369:$F$65454, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$352:$F$353, M4)+COUNTIF($F$332:$F$333, M4)+COUNTIF($F$294:$F$295, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="1230" stopIfTrue="1">
+      <formula>AND(COUNTIF($F$352:$F$65454, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF($F$332:$F$333, M4)+COUNTIF($F$294:$F$295, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="1231" stopIfTrue="1">
+      <formula>AND(COUNTIF($F$332:$F$65454, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF($F$294:$F$295, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="1232" stopIfTrue="1">
+      <formula>AND(COUNTIF($F$294:$F$65454, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="1233" stopIfTrue="1">
+      <formula>AND(COUNTIF($F$252:$F$65454, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="1234" stopIfTrue="1">
+      <formula>AND(COUNTIF($F$252:$F$65454, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$89:$F$89, M4)+COUNTIF($F$91:$F$98, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="1235" stopIfTrue="1">
+      <formula>AND(COUNTIF($F$229:$F$65454, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$89:$F$89, M4)+COUNTIF($F$91:$F$98, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="183" priority="1222" stopIfTrue="1">
       <formula>AND(COUNTIF($D$331:$D$65460, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$314:$D$315, M4)+COUNTIF($D$294:$D$295, M4)+COUNTIF($D$256:$D$257, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="371" priority="1223" stopIfTrue="1">
-      <formula>AND(COUNTIF($D$314:$D$65460, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF($D$294:$D$295, M4)+COUNTIF($D$256:$D$257, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="370" priority="1224" stopIfTrue="1">
-      <formula>AND(COUNTIF($D$294:$D$65460, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF($D$256:$D$257, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="369" priority="1225" stopIfTrue="1">
-      <formula>AND(COUNTIF($D$256:$D$65460, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="368" priority="1226" stopIfTrue="1">
-      <formula>AND(COUNTIF($D$214:$D$65460, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="367" priority="1227" stopIfTrue="1">
-      <formula>AND(COUNTIF($D$214:$D$65460, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$51:$D$51, M4)+COUNTIF($D$53:$D$60, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="366" priority="1228" stopIfTrue="1">
-      <formula>AND(COUNTIF($D$191:$D$65460, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$51:$D$51, M4)+COUNTIF($D$53:$D$60, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="365" priority="1229" stopIfTrue="1">
-      <formula>AND(COUNTIF($F$369:$F$65454, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$352:$F$353, M4)+COUNTIF($F$332:$F$333, M4)+COUNTIF($F$294:$F$295, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="364" priority="1230" stopIfTrue="1">
-      <formula>AND(COUNTIF($F$352:$F$65454, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF($F$332:$F$333, M4)+COUNTIF($F$294:$F$295, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="363" priority="1231" stopIfTrue="1">
-      <formula>AND(COUNTIF($F$332:$F$65454, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF($F$294:$F$295, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="362" priority="1232" stopIfTrue="1">
-      <formula>AND(COUNTIF($F$294:$F$65454, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="361" priority="1233" stopIfTrue="1">
-      <formula>AND(COUNTIF($F$252:$F$65454, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="360" priority="1234" stopIfTrue="1">
-      <formula>AND(COUNTIF($F$252:$F$65454, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$89:$F$89, M4)+COUNTIF($F$91:$F$98, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="359" priority="1235" stopIfTrue="1">
-      <formula>AND(COUNTIF($F$229:$F$65454, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$89:$F$89, M4)+COUNTIF($F$91:$F$98, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -7383,20 +5620,20 @@
       <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
     <col min="8" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.1796875" customWidth="1"/>
     <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:18" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:18" ht="56" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="56" t="s">
         <v>53</v>
       </c>
@@ -7449,7 +5686,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="60" t="s">
         <v>69</v>
       </c>
@@ -7492,11 +5729,11 @@
       <c r="Q4" s="70">
         <v>0</v>
       </c>
-      <c r="R4" s="169" t="s">
+      <c r="R4" s="179" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="60" t="s">
         <v>69</v>
       </c>
@@ -7535,14 +5772,14 @@
       <c r="Q5" s="70">
         <v>0</v>
       </c>
-      <c r="R5" s="170"/>
-    </row>
-    <row r="6" spans="2:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="171" t="s">
+      <c r="R5" s="180"/>
+    </row>
+    <row r="6" spans="2:18" s="75" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="172"/>
-      <c r="D6" s="173"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="183"/>
       <c r="E6" s="73">
         <v>160</v>
       </c>
@@ -7569,7 +5806,7 @@
     <mergeCell ref="B6:D6"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="containsText" dxfId="358" priority="1" operator="containsText" text="proto">
+    <cfRule type="containsText" dxfId="182" priority="1" operator="containsText" text="proto">
       <formula>NOT(ISERROR(SEARCH("proto",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7585,43 +5822,43 @@
   <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" style="4" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="15.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="3.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="28.140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="3.140625" style="1" customWidth="1"/>
-    <col min="22" max="27" width="8.7109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="3.140625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.28515625" style="1" customWidth="1"/>
-    <col min="31" max="32" width="10.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.28515625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.140625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="38.140625" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7265625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1796875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.54296875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="3.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="28.1796875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="3.1796875" style="1" customWidth="1"/>
+    <col min="22" max="27" width="8.7265625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="3.1796875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="14.26953125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.26953125" style="1" customWidth="1"/>
+    <col min="31" max="32" width="10.7265625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.26953125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="8.1796875" style="1" customWidth="1"/>
+    <col min="35" max="35" width="38.1796875" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="132" t="s">
         <v>4</v>
       </c>
@@ -7652,10 +5889,10 @@
       <c r="J1" s="146" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="186" t="s">
+      <c r="K1" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="186" t="s">
+      <c r="L1" s="155" t="s">
         <v>118</v>
       </c>
       <c r="M1" s="146" t="s">
@@ -7664,24 +5901,24 @@
       <c r="N1" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="187" t="s">
+      <c r="O1" s="156" t="s">
         <v>116</v>
       </c>
-      <c r="P1" s="188" t="s">
+      <c r="P1" s="157" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="148" t="s">
         <v>122</v>
       </c>
       <c r="C2" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="183">
+      <c r="D2" s="153">
         <v>37.504372000000004</v>
       </c>
       <c r="E2" s="120" t="s">
@@ -7706,7 +5943,7 @@
       <c r="K2" s="85">
         <v>45925</v>
       </c>
-      <c r="L2" s="184">
+      <c r="L2" s="85">
         <v>45933</v>
       </c>
       <c r="M2" s="85">
@@ -7717,23 +5954,23 @@
         <f>+L2+1</f>
         <v>45934</v>
       </c>
-      <c r="O2" s="185">
+      <c r="O2" s="154">
         <f>+D2*8831</f>
         <v>331201.10913200001</v>
       </c>
       <c r="P2" s="101"/>
     </row>
-    <row r="3" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="148" t="s">
         <v>123</v>
       </c>
       <c r="C3" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="183">
+      <c r="D3" s="153">
         <v>45.413028000000004</v>
       </c>
       <c r="E3" s="120" t="s">
@@ -7758,7 +5995,7 @@
       <c r="K3" s="85">
         <v>45937</v>
       </c>
-      <c r="L3" s="184">
+      <c r="L3" s="85">
         <f>+K3+5</f>
         <v>45942</v>
       </c>
@@ -7770,7 +6007,7 @@
         <f t="shared" ref="N3:N30" si="2">+L3+1</f>
         <v>45943</v>
       </c>
-      <c r="O3" s="185">
+      <c r="O3" s="154">
         <f t="shared" ref="O3:O30" si="3">+D3*8831</f>
         <v>401042.45026800002</v>
       </c>
@@ -7792,17 +6029,17 @@
       <c r="AH3" s="134"/>
       <c r="AI3" s="136"/>
     </row>
-    <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="178" t="s">
+      <c r="B4" s="148" t="s">
         <v>124</v>
       </c>
       <c r="C4" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="183">
+      <c r="D4" s="153">
         <v>38.847605999999992</v>
       </c>
       <c r="E4" s="120" t="s">
@@ -7826,7 +6063,7 @@
         <f>+L3+1</f>
         <v>45943</v>
       </c>
-      <c r="L4" s="184">
+      <c r="L4" s="85">
         <f t="shared" ref="L4:L6" si="4">+K4+5</f>
         <v>45948</v>
       </c>
@@ -7838,7 +6075,7 @@
         <f t="shared" si="2"/>
         <v>45949</v>
       </c>
-      <c r="O4" s="185">
+      <c r="O4" s="154">
         <f t="shared" si="3"/>
         <v>343063.20858599991</v>
       </c>
@@ -7860,17 +6097,17 @@
       <c r="AH4" s="136"/>
       <c r="AI4" s="136"/>
     </row>
-    <row r="5" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="178" t="s">
+      <c r="B5" s="148" t="s">
         <v>125</v>
       </c>
       <c r="C5" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="183">
+      <c r="D5" s="153">
         <v>38.847605999999992</v>
       </c>
       <c r="E5" s="120" t="s">
@@ -7894,7 +6131,7 @@
         <f t="shared" ref="K5:K6" si="5">+L4+1</f>
         <v>45949</v>
       </c>
-      <c r="L5" s="184">
+      <c r="L5" s="85">
         <f t="shared" si="4"/>
         <v>45954</v>
       </c>
@@ -7906,7 +6143,7 @@
         <f t="shared" si="2"/>
         <v>45955</v>
       </c>
-      <c r="O5" s="185">
+      <c r="O5" s="154">
         <f t="shared" si="3"/>
         <v>343063.20858599991</v>
       </c>
@@ -7928,17 +6165,17 @@
       <c r="AH5" s="138"/>
       <c r="AI5" s="138"/>
     </row>
-    <row r="6" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="178" t="s">
+      <c r="B6" s="148" t="s">
         <v>126</v>
       </c>
       <c r="C6" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="183">
+      <c r="D6" s="153">
         <v>60.096777000000003</v>
       </c>
       <c r="E6" s="120" t="s">
@@ -7962,7 +6199,7 @@
         <f t="shared" si="5"/>
         <v>45955</v>
       </c>
-      <c r="L6" s="184">
+      <c r="L6" s="85">
         <f t="shared" si="4"/>
         <v>45960</v>
       </c>
@@ -7974,7 +6211,7 @@
         <f t="shared" si="2"/>
         <v>45961</v>
       </c>
-      <c r="O6" s="185">
+      <c r="O6" s="154">
         <f t="shared" si="3"/>
         <v>530714.63768699998</v>
       </c>
@@ -7996,17 +6233,17 @@
       <c r="AH6" s="143"/>
       <c r="AI6" s="144"/>
     </row>
-    <row r="7" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="178" t="s">
+      <c r="B7" s="148" t="s">
         <v>127</v>
       </c>
       <c r="C7" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="183">
+      <c r="D7" s="153">
         <v>37.5</v>
       </c>
       <c r="E7" s="133" t="s">
@@ -8031,7 +6268,7 @@
       <c r="K7" s="85">
         <v>45930</v>
       </c>
-      <c r="L7" s="184">
+      <c r="L7" s="85">
         <f>+K7+10</f>
         <v>45940</v>
       </c>
@@ -8043,7 +6280,7 @@
         <f t="shared" si="2"/>
         <v>45941</v>
       </c>
-      <c r="O7" s="185">
+      <c r="O7" s="154">
         <f t="shared" si="3"/>
         <v>331162.5</v>
       </c>
@@ -8065,17 +6302,17 @@
       <c r="AH7" s="143"/>
       <c r="AI7" s="144"/>
     </row>
-    <row r="8" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="179" t="s">
+      <c r="B8" s="149" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="183">
+      <c r="D8" s="153">
         <v>67.873650999999995</v>
       </c>
       <c r="E8" s="133" t="s">
@@ -8098,7 +6335,7 @@
       <c r="K8" s="85">
         <v>45937</v>
       </c>
-      <c r="L8" s="184">
+      <c r="L8" s="85">
         <f>+K8+5</f>
         <v>45942</v>
       </c>
@@ -8110,7 +6347,7 @@
         <f t="shared" si="2"/>
         <v>45943</v>
       </c>
-      <c r="O8" s="185">
+      <c r="O8" s="154">
         <f t="shared" si="3"/>
         <v>599392.21198099991</v>
       </c>
@@ -8132,17 +6369,17 @@
       <c r="AH8" s="143"/>
       <c r="AI8" s="144"/>
     </row>
-    <row r="9" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="179" t="s">
+      <c r="B9" s="149" t="s">
         <v>129</v>
       </c>
       <c r="C9" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="183">
+      <c r="D9" s="153">
         <v>47.184350000000002</v>
       </c>
       <c r="E9" s="133" t="s">
@@ -8166,7 +6403,7 @@
         <f>+L8+1</f>
         <v>45943</v>
       </c>
-      <c r="L9" s="184">
+      <c r="L9" s="85">
         <f t="shared" ref="L9:L11" si="6">+K9+5</f>
         <v>45948</v>
       </c>
@@ -8178,7 +6415,7 @@
         <f t="shared" si="2"/>
         <v>45949</v>
       </c>
-      <c r="O9" s="185">
+      <c r="O9" s="154">
         <f t="shared" si="3"/>
         <v>416684.99485000002</v>
       </c>
@@ -8200,17 +6437,17 @@
       <c r="AH9" s="143"/>
       <c r="AI9" s="144"/>
     </row>
-    <row r="10" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="179" t="s">
+      <c r="B10" s="149" t="s">
         <v>130</v>
       </c>
       <c r="C10" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="183">
+      <c r="D10" s="153">
         <v>57.597240999999997</v>
       </c>
       <c r="E10" s="120" t="s">
@@ -8236,7 +6473,7 @@
         <f t="shared" ref="K10:K11" si="7">+L9+1</f>
         <v>45949</v>
       </c>
-      <c r="L10" s="184">
+      <c r="L10" s="85">
         <f t="shared" si="6"/>
         <v>45954</v>
       </c>
@@ -8248,7 +6485,7 @@
         <f t="shared" si="2"/>
         <v>45955</v>
       </c>
-      <c r="O10" s="185">
+      <c r="O10" s="154">
         <f t="shared" si="3"/>
         <v>508641.23527099995</v>
       </c>
@@ -8270,17 +6507,17 @@
       <c r="AH10" s="143"/>
       <c r="AI10" s="144"/>
     </row>
-    <row r="11" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="179" t="s">
+      <c r="B11" s="149" t="s">
         <v>131</v>
       </c>
       <c r="C11" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="183">
+      <c r="D11" s="153">
         <v>67.873650999999995</v>
       </c>
       <c r="E11" s="120" t="s">
@@ -8304,7 +6541,7 @@
         <f t="shared" si="7"/>
         <v>45955</v>
       </c>
-      <c r="L11" s="184">
+      <c r="L11" s="85">
         <f t="shared" si="6"/>
         <v>45960</v>
       </c>
@@ -8316,7 +6553,7 @@
         <f t="shared" si="2"/>
         <v>45961</v>
       </c>
-      <c r="O11" s="185">
+      <c r="O11" s="154">
         <f t="shared" si="3"/>
         <v>599392.21198099991</v>
       </c>
@@ -8338,17 +6575,17 @@
       <c r="AH11" s="143"/>
       <c r="AI11" s="144"/>
     </row>
-    <row r="12" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="180" t="s">
+      <c r="B12" s="150" t="s">
         <v>132</v>
       </c>
       <c r="C12" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="183">
+      <c r="D12" s="153">
         <v>37.504372000000004</v>
       </c>
       <c r="E12" s="120" t="s">
@@ -8371,7 +6608,7 @@
       <c r="K12" s="85">
         <v>45937</v>
       </c>
-      <c r="L12" s="184">
+      <c r="L12" s="85">
         <f>+K12+10</f>
         <v>45947</v>
       </c>
@@ -8383,7 +6620,7 @@
         <f t="shared" si="2"/>
         <v>45948</v>
       </c>
-      <c r="O12" s="185">
+      <c r="O12" s="154">
         <f t="shared" si="3"/>
         <v>331201.10913200001</v>
       </c>
@@ -8405,17 +6642,17 @@
       <c r="AH12" s="143"/>
       <c r="AI12" s="144"/>
     </row>
-    <row r="13" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="178" t="s">
+      <c r="B13" s="148" t="s">
         <v>133</v>
       </c>
       <c r="C13" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="183">
+      <c r="D13" s="153">
         <v>37.504372000000004</v>
       </c>
       <c r="E13" s="120" t="s">
@@ -8438,7 +6675,7 @@
       <c r="K13" s="85">
         <v>45927</v>
       </c>
-      <c r="L13" s="184">
+      <c r="L13" s="85">
         <v>45936</v>
       </c>
       <c r="M13" s="85">
@@ -8449,7 +6686,7 @@
         <f t="shared" si="2"/>
         <v>45937</v>
       </c>
-      <c r="O13" s="185">
+      <c r="O13" s="154">
         <f t="shared" si="3"/>
         <v>331201.10913200001</v>
       </c>
@@ -8471,17 +6708,17 @@
       <c r="AH13" s="143"/>
       <c r="AI13" s="144"/>
     </row>
-    <row r="14" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="178" t="s">
+      <c r="B14" s="148" t="s">
         <v>134</v>
       </c>
       <c r="C14" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="D14" s="183">
+      <c r="D14" s="153">
         <v>66.381106999999986</v>
       </c>
       <c r="E14" s="120" t="s">
@@ -8506,7 +6743,7 @@
       <c r="K14" s="85">
         <v>45929</v>
       </c>
-      <c r="L14" s="184">
+      <c r="L14" s="85">
         <f>+K14+10</f>
         <v>45939</v>
       </c>
@@ -8518,7 +6755,7 @@
         <f t="shared" si="2"/>
         <v>45940</v>
       </c>
-      <c r="O14" s="185">
+      <c r="O14" s="154">
         <f t="shared" si="3"/>
         <v>586211.55591699993</v>
       </c>
@@ -8541,17 +6778,17 @@
       <c r="AI14" s="144"/>
       <c r="AK14" s="101"/>
     </row>
-    <row r="15" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="178" t="s">
+      <c r="B15" s="148" t="s">
         <v>135</v>
       </c>
       <c r="C15" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="183">
+      <c r="D15" s="153">
         <v>45.413028000000004</v>
       </c>
       <c r="E15" s="120" t="s">
@@ -8575,7 +6812,7 @@
         <f>+L14+1</f>
         <v>45940</v>
       </c>
-      <c r="L15" s="184">
+      <c r="L15" s="85">
         <f>+K15+4</f>
         <v>45944</v>
       </c>
@@ -8587,7 +6824,7 @@
         <f t="shared" si="2"/>
         <v>45945</v>
       </c>
-      <c r="O15" s="185">
+      <c r="O15" s="154">
         <f t="shared" si="3"/>
         <v>401042.45026800002</v>
       </c>
@@ -8609,17 +6846,17 @@
       <c r="AH15" s="143"/>
       <c r="AI15" s="144"/>
     </row>
-    <row r="16" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="178" t="s">
+      <c r="B16" s="148" t="s">
         <v>136</v>
       </c>
       <c r="C16" s="125" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="182">
+      <c r="D16" s="152">
         <v>78.132046999999986</v>
       </c>
       <c r="E16" s="120" t="s">
@@ -8642,7 +6879,7 @@
         <f t="shared" ref="K16:K18" si="8">+L15+1</f>
         <v>45945</v>
       </c>
-      <c r="L16" s="184">
+      <c r="L16" s="85">
         <f>+K16+4</f>
         <v>45949</v>
       </c>
@@ -8654,7 +6891,7 @@
         <f t="shared" si="2"/>
         <v>45950</v>
       </c>
-      <c r="O16" s="185">
+      <c r="O16" s="154">
         <f t="shared" si="3"/>
         <v>689984.10705699993</v>
       </c>
@@ -8676,17 +6913,17 @@
       <c r="AH16" s="143"/>
       <c r="AI16" s="144"/>
     </row>
-    <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="181" t="s">
+      <c r="B17" s="151" t="s">
         <v>137</v>
       </c>
       <c r="C17" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="183">
+      <c r="D17" s="153">
         <v>37.504372000000004</v>
       </c>
       <c r="E17" s="120" t="s">
@@ -8710,8 +6947,8 @@
         <f t="shared" si="8"/>
         <v>45950</v>
       </c>
-      <c r="L17" s="184">
-        <f t="shared" ref="L16:L18" si="9">+K17+5</f>
+      <c r="L17" s="85">
+        <f t="shared" ref="L17:L18" si="9">+K17+5</f>
         <v>45955</v>
       </c>
       <c r="M17" s="85">
@@ -8722,7 +6959,7 @@
         <f t="shared" si="2"/>
         <v>45956</v>
       </c>
-      <c r="O17" s="185">
+      <c r="O17" s="154">
         <f t="shared" si="3"/>
         <v>331201.10913200001</v>
       </c>
@@ -8744,17 +6981,17 @@
       <c r="AH17" s="143"/>
       <c r="AI17" s="144"/>
     </row>
-    <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="178" t="s">
+      <c r="B18" s="148" t="s">
         <v>138</v>
       </c>
       <c r="C18" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="D18" s="182">
+      <c r="D18" s="152">
         <v>66.381106999999986</v>
       </c>
       <c r="E18" s="120" t="s">
@@ -8777,7 +7014,7 @@
         <f t="shared" si="8"/>
         <v>45956</v>
       </c>
-      <c r="L18" s="184">
+      <c r="L18" s="85">
         <f t="shared" si="9"/>
         <v>45961</v>
       </c>
@@ -8789,7 +7026,7 @@
         <f t="shared" si="2"/>
         <v>45962</v>
       </c>
-      <c r="O18" s="185">
+      <c r="O18" s="154">
         <f t="shared" si="3"/>
         <v>586211.55591699993</v>
       </c>
@@ -8811,17 +7048,17 @@
       <c r="AH18" s="143"/>
       <c r="AI18" s="144"/>
     </row>
-    <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="178" t="s">
+      <c r="B19" s="148" t="s">
         <v>139</v>
       </c>
       <c r="C19" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="183">
+      <c r="D19" s="153">
         <v>45.413028000000004</v>
       </c>
       <c r="E19" s="133" t="s">
@@ -8846,7 +7083,7 @@
       <c r="K19" s="85">
         <v>45937</v>
       </c>
-      <c r="L19" s="184">
+      <c r="L19" s="85">
         <f>+K19+4</f>
         <v>45941</v>
       </c>
@@ -8858,7 +7095,7 @@
         <f t="shared" si="2"/>
         <v>45942</v>
       </c>
-      <c r="O19" s="185">
+      <c r="O19" s="154">
         <f t="shared" si="3"/>
         <v>401042.45026800002</v>
       </c>
@@ -8880,17 +7117,17 @@
       <c r="AH19" s="143"/>
       <c r="AI19" s="144"/>
     </row>
-    <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="178" t="s">
+      <c r="B20" s="148" t="s">
         <v>140</v>
       </c>
       <c r="C20" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="183">
+      <c r="D20" s="153">
         <v>45.413028000000004</v>
       </c>
       <c r="E20" s="133" t="s">
@@ -8914,7 +7151,7 @@
         <f>+L19+1</f>
         <v>45942</v>
       </c>
-      <c r="L20" s="184">
+      <c r="L20" s="85">
         <f>+K20+4</f>
         <v>45946</v>
       </c>
@@ -8926,7 +7163,7 @@
         <f t="shared" si="2"/>
         <v>45947</v>
       </c>
-      <c r="O20" s="185">
+      <c r="O20" s="154">
         <f t="shared" si="3"/>
         <v>401042.45026800002</v>
       </c>
@@ -8948,17 +7185,17 @@
       <c r="AH20" s="143"/>
       <c r="AI20" s="144"/>
     </row>
-    <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="181" t="s">
+      <c r="B21" s="151" t="s">
         <v>141</v>
       </c>
       <c r="C21" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="183">
+      <c r="D21" s="153">
         <v>37.504372000000004</v>
       </c>
       <c r="E21" s="133" t="s">
@@ -8982,7 +7219,7 @@
         <f t="shared" ref="K21:K23" si="10">+L20+1</f>
         <v>45947</v>
       </c>
-      <c r="L21" s="184">
+      <c r="L21" s="85">
         <f t="shared" ref="L21:L23" si="11">+K21+4</f>
         <v>45951</v>
       </c>
@@ -8994,7 +7231,7 @@
         <f t="shared" si="2"/>
         <v>45952</v>
       </c>
-      <c r="O21" s="185">
+      <c r="O21" s="154">
         <f t="shared" si="3"/>
         <v>331201.10913200001</v>
       </c>
@@ -9016,17 +7253,17 @@
       <c r="AH21" s="143"/>
       <c r="AI21" s="144"/>
     </row>
-    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="178" t="s">
+      <c r="B22" s="148" t="s">
         <v>142</v>
       </c>
       <c r="C22" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="183">
+      <c r="D22" s="153">
         <v>37.504372000000004</v>
       </c>
       <c r="E22" s="133" t="s">
@@ -9050,7 +7287,7 @@
         <f t="shared" si="10"/>
         <v>45952</v>
       </c>
-      <c r="L22" s="184">
+      <c r="L22" s="85">
         <f t="shared" si="11"/>
         <v>45956</v>
       </c>
@@ -9062,7 +7299,7 @@
         <f t="shared" si="2"/>
         <v>45957</v>
       </c>
-      <c r="O22" s="185">
+      <c r="O22" s="154">
         <f t="shared" si="3"/>
         <v>331201.10913200001</v>
       </c>
@@ -9084,17 +7321,17 @@
       <c r="AH22" s="143"/>
       <c r="AI22" s="144"/>
     </row>
-    <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="178" t="s">
+      <c r="B23" s="148" t="s">
         <v>143</v>
       </c>
       <c r="C23" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="183">
+      <c r="D23" s="153">
         <v>47.184350000000002</v>
       </c>
       <c r="E23" s="133" t="s">
@@ -9118,7 +7355,7 @@
         <f t="shared" si="10"/>
         <v>45957</v>
       </c>
-      <c r="L23" s="184">
+      <c r="L23" s="85">
         <f t="shared" si="11"/>
         <v>45961</v>
       </c>
@@ -9130,7 +7367,7 @@
         <f t="shared" si="2"/>
         <v>45962</v>
       </c>
-      <c r="O23" s="185">
+      <c r="O23" s="154">
         <f t="shared" si="3"/>
         <v>416684.99485000002</v>
       </c>
@@ -9152,17 +7389,17 @@
       <c r="AH23" s="143"/>
       <c r="AI23" s="144"/>
     </row>
-    <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="178" t="s">
+      <c r="B24" s="148" t="s">
         <v>144</v>
       </c>
       <c r="C24" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="183">
+      <c r="D24" s="153">
         <v>37.504372000000004</v>
       </c>
       <c r="E24" s="133" t="s">
@@ -9185,7 +7422,7 @@
       <c r="K24" s="85">
         <v>45922</v>
       </c>
-      <c r="L24" s="184">
+      <c r="L24" s="85">
         <v>45937</v>
       </c>
       <c r="M24" s="85">
@@ -9196,7 +7433,7 @@
         <f t="shared" si="2"/>
         <v>45938</v>
       </c>
-      <c r="O24" s="185">
+      <c r="O24" s="154">
         <f t="shared" si="3"/>
         <v>331201.10913200001</v>
       </c>
@@ -9217,17 +7454,17 @@
       <c r="AH24" s="143"/>
       <c r="AI24" s="144"/>
     </row>
-    <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="178" t="s">
+      <c r="B25" s="148" t="s">
         <v>145</v>
       </c>
       <c r="C25" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="182">
+      <c r="D25" s="152">
         <v>37.504372000000004</v>
       </c>
       <c r="E25" s="133" t="s">
@@ -9253,7 +7490,7 @@
         <f>+L24+1</f>
         <v>45938</v>
       </c>
-      <c r="L25" s="184">
+      <c r="L25" s="85">
         <f>+K25+5</f>
         <v>45943</v>
       </c>
@@ -9265,7 +7502,7 @@
         <f t="shared" si="2"/>
         <v>45944</v>
       </c>
-      <c r="O25" s="185">
+      <c r="O25" s="154">
         <f t="shared" si="3"/>
         <v>331201.10913200001</v>
       </c>
@@ -9287,17 +7524,17 @@
       <c r="AH25" s="143"/>
       <c r="AI25" s="144"/>
     </row>
-    <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="178" t="s">
+      <c r="B26" s="148" t="s">
         <v>146</v>
       </c>
       <c r="C26" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="183">
+      <c r="D26" s="153">
         <v>38.847605999999992</v>
       </c>
       <c r="E26" s="133" t="s">
@@ -9321,7 +7558,7 @@
         <f t="shared" ref="K26:K27" si="12">+L25+1</f>
         <v>45944</v>
       </c>
-      <c r="L26" s="184">
+      <c r="L26" s="85">
         <f t="shared" ref="L26:L27" si="13">+K26+5</f>
         <v>45949</v>
       </c>
@@ -9333,7 +7570,7 @@
         <f t="shared" si="2"/>
         <v>45950</v>
       </c>
-      <c r="O26" s="185">
+      <c r="O26" s="154">
         <f t="shared" si="3"/>
         <v>343063.20858599991</v>
       </c>
@@ -9355,17 +7592,17 @@
       <c r="AH26" s="143"/>
       <c r="AI26" s="144"/>
     </row>
-    <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="178" t="s">
+      <c r="B27" s="148" t="s">
         <v>147</v>
       </c>
       <c r="C27" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="D27" s="183">
+      <c r="D27" s="153">
         <v>89.1</v>
       </c>
       <c r="E27" s="133" t="s">
@@ -9389,7 +7626,7 @@
         <f t="shared" si="12"/>
         <v>45950</v>
       </c>
-      <c r="L27" s="184">
+      <c r="L27" s="85">
         <f t="shared" si="13"/>
         <v>45955</v>
       </c>
@@ -9401,7 +7638,7 @@
         <f t="shared" si="2"/>
         <v>45956</v>
       </c>
-      <c r="O27" s="185">
+      <c r="O27" s="154">
         <f t="shared" si="3"/>
         <v>786842.1</v>
       </c>
@@ -9423,17 +7660,17 @@
       <c r="AH27" s="143"/>
       <c r="AI27" s="144"/>
     </row>
-    <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="178" t="s">
+      <c r="B28" s="148" t="s">
         <v>92</v>
       </c>
       <c r="C28" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="183">
+      <c r="D28" s="153">
         <v>143.60187300000001</v>
       </c>
       <c r="E28" s="133" t="s">
@@ -9456,7 +7693,7 @@
       <c r="K28" s="85">
         <v>45929</v>
       </c>
-      <c r="L28" s="184">
+      <c r="L28" s="85">
         <f t="shared" ref="L28:L29" si="14">+K28+10</f>
         <v>45939</v>
       </c>
@@ -9468,7 +7705,7 @@
         <f t="shared" si="2"/>
         <v>45940</v>
       </c>
-      <c r="O28" s="185">
+      <c r="O28" s="154">
         <f>+D28*9818</f>
         <v>1409883.1891140002</v>
       </c>
@@ -9490,17 +7727,17 @@
       <c r="AH28" s="143"/>
       <c r="AI28" s="144"/>
     </row>
-    <row r="29" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="178" t="s">
+      <c r="B29" s="148" t="s">
         <v>93</v>
       </c>
       <c r="C29" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="183">
+      <c r="D29" s="153">
         <v>67.873650999999995</v>
       </c>
       <c r="E29" s="133" t="s">
@@ -9525,7 +7762,7 @@
       <c r="K29" s="85">
         <v>45930</v>
       </c>
-      <c r="L29" s="184">
+      <c r="L29" s="85">
         <f t="shared" si="14"/>
         <v>45940</v>
       </c>
@@ -9537,7 +7774,7 @@
         <f t="shared" si="2"/>
         <v>45941</v>
       </c>
-      <c r="O29" s="185">
+      <c r="O29" s="154">
         <f t="shared" si="3"/>
         <v>599392.21198099991</v>
       </c>
@@ -9559,17 +7796,17 @@
       <c r="AH29" s="143"/>
       <c r="AI29" s="144"/>
     </row>
-    <row r="30" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="178" t="s">
+      <c r="B30" s="148" t="s">
         <v>148</v>
       </c>
       <c r="C30" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="183">
+      <c r="D30" s="153">
         <v>37.504372000000004</v>
       </c>
       <c r="E30" s="120" t="s">
@@ -9593,7 +7830,7 @@
         <f>+L29+1</f>
         <v>45941</v>
       </c>
-      <c r="L30" s="184">
+      <c r="L30" s="85">
         <f>+K30+10</f>
         <v>45951</v>
       </c>
@@ -9605,7 +7842,7 @@
         <f t="shared" si="2"/>
         <v>45952</v>
       </c>
-      <c r="O30" s="185">
+      <c r="O30" s="154">
         <f t="shared" si="3"/>
         <v>331201.10913200001</v>
       </c>
@@ -9627,7 +7864,7 @@
       <c r="AH30" s="143"/>
       <c r="AI30" s="144"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
       <c r="AC31" s="145"/>
       <c r="AD31" s="145"/>
       <c r="AE31" s="145"/>
@@ -9638,6 +7875,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="181" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:B15">
+    <cfRule type="duplicateValues" dxfId="180" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B30 B2:B11">
+    <cfRule type="duplicateValues" dxfId="178" priority="36"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C19">
     <cfRule type="dataBar" priority="266">
       <dataBar>
@@ -9653,712 +7900,670 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J30">
-    <cfRule type="containsText" dxfId="356" priority="64" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="177" priority="63" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",J2)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J30">
-    <cfRule type="containsText" dxfId="355" priority="69" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="176" priority="69" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="354" priority="70" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="175" priority="70" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J15">
-    <cfRule type="containsText" dxfId="353" priority="72" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="174" priority="73" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="173" priority="72" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="352" priority="73" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J14">
-    <cfRule type="containsText" dxfId="351" priority="71" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="172" priority="71" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",J5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="containsText" dxfId="171" priority="198" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="170" priority="199" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="169" priority="200" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="168" priority="202" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="167" priority="203" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="204" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="165" priority="205" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="164" priority="201" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J12">
-    <cfRule type="containsText" dxfId="350" priority="37" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="163" priority="37" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="38" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="162" priority="38" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J14">
-    <cfRule type="containsText" dxfId="348" priority="66" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="347" priority="67" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="161" priority="67" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="346" priority="68" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="160" priority="68" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15:J16 L14:N14 K15:N15 K15:L18">
-    <cfRule type="containsText" dxfId="345" priority="250" operator="containsText" text="WIP">
+  <conditionalFormatting sqref="J15:J16 K15:L18 L14:N14 K15:N15">
+    <cfRule type="containsText" dxfId="159" priority="250" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:J20">
-    <cfRule type="containsText" dxfId="344" priority="62" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="158" priority="62" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="343" priority="63" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J17)))</formula>
+    <cfRule type="containsText" dxfId="157" priority="61" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:J23">
-    <cfRule type="containsText" dxfId="342" priority="57" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="156" priority="58" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="155" priority="57" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="58" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J20)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21 M21:N21">
+    <cfRule type="containsText" dxfId="154" priority="165" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="containsText" dxfId="153" priority="171" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J23">
-    <cfRule type="containsText" dxfId="340" priority="53" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="152" priority="54" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="56" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",J22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="339" priority="54" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="338" priority="55" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="150" priority="53" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="55" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="56" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:J30">
-    <cfRule type="containsText" dxfId="336" priority="41" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="148" priority="43" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="147" priority="42" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="146" priority="41" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",J23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="335" priority="42" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="43" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="333" priority="198" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="332" priority="199" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="331" priority="200" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="330" priority="201" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="329" priority="202" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="328" priority="203" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="327" priority="204" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="205" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:K16">
-    <cfRule type="containsText" dxfId="325" priority="246" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="145" priority="247" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="246" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="324" priority="247" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:K18">
-    <cfRule type="containsText" dxfId="323" priority="181" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="143" priority="181" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="322" priority="182" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="142" priority="182" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
-    <cfRule type="containsText" dxfId="321" priority="171" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:K30">
-    <cfRule type="containsText" dxfId="320" priority="39" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="141" priority="39" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="319" priority="40" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="140" priority="40" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:N2 J2:J30 M2:N30">
-    <cfRule type="containsText" dxfId="318" priority="90" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="139" priority="91" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:N2 M2:N30 J2:J30">
+    <cfRule type="containsText" dxfId="138" priority="90" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="317" priority="91" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J2)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:N4 L6:N6 K4:K6">
-    <cfRule type="containsText" dxfId="316" priority="260" operator="containsText" text="WIP">
+  <conditionalFormatting sqref="J4:N4 K4:K6 L6:N6">
+    <cfRule type="containsText" dxfId="137" priority="260" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="261" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="136" priority="261" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="262" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="135" priority="262" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:N16">
-    <cfRule type="containsText" dxfId="313" priority="196" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="134" priority="197" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="196" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="312" priority="197" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21 M21:N21">
-    <cfRule type="containsText" dxfId="311" priority="164" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="165" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:N23">
-    <cfRule type="containsText" dxfId="309" priority="146" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="132" priority="157" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",J23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="308" priority="147" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="131" priority="146" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="147" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="148" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="129" priority="148" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="149" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="128" priority="149" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="305" priority="150" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="127" priority="150" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="304" priority="157" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K6">
-    <cfRule type="containsText" dxfId="303" priority="233" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="126" priority="234" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="233" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="234" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K2)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J20">
-    <cfRule type="containsText" dxfId="301" priority="61" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J17)))</formula>
+  <conditionalFormatting sqref="K28:K29 M28:N29">
+    <cfRule type="containsText" dxfId="124" priority="119" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="118" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K28)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:N4 M2:N30 K4:K6 L3:L6">
-    <cfRule type="containsText" dxfId="296" priority="180" operator="containsText" text="WIP">
+  <conditionalFormatting sqref="K8:L11">
+    <cfRule type="containsText" dxfId="122" priority="21" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="26" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="25" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="119" priority="22" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="17" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:L9 K10:K11 L11">
+    <cfRule type="containsText" dxfId="117" priority="27" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:L9 K10:K11 L11:N11">
+    <cfRule type="containsText" dxfId="116" priority="28" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="29" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:L23">
+    <cfRule type="containsText" dxfId="114" priority="5" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="113" priority="6" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="1" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="10" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="9" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20:L23">
+    <cfRule type="containsText" dxfId="109" priority="11" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="12" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="107" priority="13" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:L22">
+    <cfRule type="containsText" dxfId="106" priority="16" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="15" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="14" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:N4 L3:L6 K4:K6">
+    <cfRule type="containsText" dxfId="103" priority="180" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:N4 K4:K6 L3:L6">
-    <cfRule type="containsText" dxfId="295" priority="251" operator="containsText" text="Complete">
+  <conditionalFormatting sqref="K3:N4 L3:L6 K4:K6">
+    <cfRule type="containsText" dxfId="102" priority="251" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="252" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="101" priority="252" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:N7 K12:N14 M8:N11 K10:L11">
-    <cfRule type="containsText" dxfId="293" priority="235" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="100" priority="235" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:N7 K12:N15 M8:N11 K10:L11 K15:L18">
-    <cfRule type="containsText" dxfId="292" priority="236" operator="containsText" text="Complete">
+  <conditionalFormatting sqref="K5:N7 M8:N11 K10:L11 K12:N15 K15:L18">
+    <cfRule type="containsText" dxfId="99" priority="237" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="236" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="237" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K5)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:N12 M11:N11">
-    <cfRule type="containsText" dxfId="290" priority="79" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="80" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K11)))</formula>
+  <conditionalFormatting sqref="K12:N12">
+    <cfRule type="containsText" dxfId="97" priority="79" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="80" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:N14">
-    <cfRule type="containsText" dxfId="288" priority="217" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="95" priority="218" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="217" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",K13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="287" priority="218" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="219" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="93" priority="219" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",K13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:N18 M19:N20">
+    <cfRule type="containsText" dxfId="92" priority="173" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:N18">
-    <cfRule type="containsText" dxfId="285" priority="183" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="91" priority="183" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",K17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17:N18 M19:N20">
-    <cfRule type="containsText" dxfId="284" priority="172" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="173" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19:N20">
-    <cfRule type="containsText" dxfId="282" priority="174" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",M19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:N23 M22:N22">
-    <cfRule type="containsText" dxfId="281" priority="151" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="90" priority="151" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",K22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="152" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="153" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="154" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="155" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="156" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:N25 K25:L27">
-    <cfRule type="containsText" dxfId="275" priority="135" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="89" priority="135" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",K23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="136" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="88" priority="136" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="137" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="87" priority="137" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",K23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:N27">
-    <cfRule type="containsText" dxfId="272" priority="126" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="86" priority="128" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="127" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="126" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",K26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="127" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="128" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28:K29 M28:N29">
-    <cfRule type="containsText" dxfId="269" priority="117" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="118" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="119" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:N30">
-    <cfRule type="containsText" dxfId="266" priority="108" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="83" priority="108" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",K30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="109" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="82" priority="109" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="110" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="81" priority="110" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",K30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="containsText" dxfId="80" priority="19" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="18" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="20" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="4" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="2" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:L27 L25:N25">
+    <cfRule type="containsText" dxfId="74" priority="132" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L28:L29">
+    <cfRule type="containsText" dxfId="73" priority="30" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="31" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="32" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:N2 M2:N30">
-    <cfRule type="containsText" dxfId="263" priority="88" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="89" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="70" priority="89" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:N6">
-    <cfRule type="containsText" dxfId="261" priority="248" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="69" priority="249" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="248" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="260" priority="249" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:N6">
-    <cfRule type="containsText" dxfId="259" priority="230" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="67" priority="230" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="231" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="66" priority="231" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="257" priority="232" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="65" priority="232" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:N12">
+    <cfRule type="containsText" dxfId="64" priority="83" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="84" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="85" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="77" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="76" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="78" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:N14 J23:N23">
+    <cfRule type="containsText" dxfId="58" priority="257" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="255" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:N14">
+    <cfRule type="containsText" dxfId="56" priority="215" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="214" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="216" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:N15 L15:L18">
+    <cfRule type="containsText" dxfId="53" priority="221" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="220" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16:N16">
+    <cfRule type="containsText" dxfId="51" priority="192" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="191" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="190" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="195" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="189" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="187" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="188" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16:N18">
+    <cfRule type="containsText" dxfId="44" priority="193" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="194" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24:N27 M28:N29 L30:N30">
+    <cfRule type="containsText" dxfId="42" priority="138" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="139" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:N25 L25:L27">
+    <cfRule type="containsText" dxfId="40" priority="134" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="133" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="141" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="142" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="140" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:N27">
+    <cfRule type="containsText" dxfId="35" priority="125" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="123" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="131" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="130" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="124" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="129" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:N30 L2:N2">
+    <cfRule type="containsText" dxfId="29" priority="88" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:N30">
+    <cfRule type="containsText" dxfId="28" priority="174" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:N10">
-    <cfRule type="containsText" dxfId="256" priority="206" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="27" priority="207" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",M9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="208" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",M9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="209" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",M9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="210" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",M9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="211" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",M9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="207" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="22" priority="212" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",M9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="208" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="21" priority="213" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",M9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="209" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",M9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="210" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",M9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="211" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",M9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="212" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",M9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="213" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",M9)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:N12">
-    <cfRule type="containsText" dxfId="248" priority="76" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="77" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="78" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="83" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="84" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="85" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14:N14 J23:N23">
-    <cfRule type="containsText" dxfId="242" priority="255" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="257" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",J14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14:N14">
-    <cfRule type="containsText" dxfId="240" priority="214" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="239" priority="215" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="216" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14:N15 L15:L18">
-    <cfRule type="containsText" dxfId="237" priority="220" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="221" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16:N16">
-    <cfRule type="containsText" dxfId="235" priority="187" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="188" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="189" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="190" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="191" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="192" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="195" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16:N18">
-    <cfRule type="containsText" dxfId="228" priority="193" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="194" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L16)))</formula>
+  <conditionalFormatting sqref="M19:N20 K17:N18">
+    <cfRule type="containsText" dxfId="20" priority="172" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:N21">
-    <cfRule type="containsText" dxfId="226" priority="167" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="19" priority="168" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",M19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="167" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",M19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="168" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",M19)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21:N21 J21">
+    <cfRule type="containsText" dxfId="17" priority="164" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21:N21">
-    <cfRule type="containsText" dxfId="224" priority="158" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="16" priority="163" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",M21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="162" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",M21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="161" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="159" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",M21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="160" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",M21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="161" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="13" priority="166" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="162" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",M21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="163" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",M21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="166" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",M21)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30:N30 M28:N29 L24:N27">
-    <cfRule type="containsText" dxfId="217" priority="138" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="139" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L24)))</formula>
+  <conditionalFormatting sqref="M21:N22 K23:N23">
+    <cfRule type="containsText" dxfId="12" priority="156" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="155" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="154" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25:N25 L25:L27">
-    <cfRule type="containsText" dxfId="215" priority="132" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="133" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="134" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="140" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="141" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="142" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L25)))</formula>
+  <conditionalFormatting sqref="M22:N22 K23:N23">
+    <cfRule type="containsText" dxfId="9" priority="153" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",K22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="152" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",K22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27:N27">
-    <cfRule type="containsText" dxfId="209" priority="123" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="124" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="125" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="129" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="130" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="131" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L27)))</formula>
+  <conditionalFormatting sqref="M28:N29 K28:K29">
+    <cfRule type="containsText" dxfId="7" priority="117" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",K28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:N29">
-    <cfRule type="containsText" dxfId="203" priority="114" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="6" priority="114" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",M29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="115" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="5" priority="115" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",M29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="116" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="4" priority="120" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",M29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="116" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",M29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="120" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",M29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="121" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="2" priority="121" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",M29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="122" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="1" priority="122" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",M29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B15">
-    <cfRule type="duplicateValues" dxfId="197" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="196" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B30 B2:B11">
-    <cfRule type="duplicateValues" dxfId="195" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L28:L29">
-    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L28:L29">
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:L9 L11 K10:K11">
-    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K11">
-    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:L11">
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:L11">
-    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="26" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L11">
-    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="24" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:L22">
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:L22">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20:L23">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:K23">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:L23">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",K19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:L23">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",K19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",K19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L19:L23">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -10398,50 +8603,50 @@
       <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="3.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="1" customWidth="1"/>
-    <col min="16" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="3.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" style="1" customWidth="1"/>
-    <col min="25" max="26" width="10.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="17.28515625" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.1796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.54296875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.1796875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" style="1" customWidth="1"/>
+    <col min="16" max="20" width="8.7265625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="3.1796875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7265625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.54296875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.453125" style="1" customWidth="1"/>
+    <col min="25" max="26" width="10.7265625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.453125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="17.26953125" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="38"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
@@ -10458,7 +8663,7 @@
         <v>905812</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -10468,7 +8673,7 @@
       </c>
       <c r="O5" s="121"/>
     </row>
-    <row r="6" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="D6" s="2" t="s">
         <v>94</v>
@@ -10477,7 +8682,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="D7" s="2" t="s">
         <v>2</v>
@@ -10487,11 +8692,11 @@
         <v>82.4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -10513,13 +8718,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
@@ -10543,7 +8748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="D12" s="2" t="s">
         <v>25</v>
@@ -10565,7 +8770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="D13" s="2" t="s">
         <v>26</v>
@@ -10587,7 +8792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="D14" s="2" t="s">
         <v>27</v>
@@ -10609,7 +8814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="D15" s="28" t="s">
         <v>28</v>
@@ -10631,7 +8836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="D16" s="27" t="s">
         <v>29</v>
@@ -10653,125 +8858,125 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="166" t="s">
+    <row r="18" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="166" t="s">
+      <c r="B18" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="162" t="s">
+      <c r="C18" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="162" t="s">
+      <c r="D18" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="166" t="s">
+      <c r="E18" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="153" t="s">
+      <c r="F18" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="156" t="s">
+      <c r="G18" s="173"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="162" t="s">
+      <c r="M18" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="157" t="s">
+      <c r="O18" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="P18" s="158"/>
-      <c r="Q18" s="158"/>
-      <c r="R18" s="158"/>
-      <c r="S18" s="158"/>
-      <c r="T18" s="159"/>
-      <c r="V18" s="157" t="s">
+      <c r="P18" s="168"/>
+      <c r="Q18" s="168"/>
+      <c r="R18" s="168"/>
+      <c r="S18" s="168"/>
+      <c r="T18" s="169"/>
+      <c r="V18" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="W18" s="158"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="158"/>
-      <c r="Z18" s="158"/>
-      <c r="AA18" s="159"/>
-      <c r="AB18" s="160" t="s">
+      <c r="W18" s="168"/>
+      <c r="X18" s="168"/>
+      <c r="Y18" s="168"/>
+      <c r="Z18" s="168"/>
+      <c r="AA18" s="169"/>
+      <c r="AB18" s="170" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="167"/>
-      <c r="B19" s="167"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="174" t="s">
+    <row r="19" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="162"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="175" t="s">
+      <c r="G19" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="176"/>
-      <c r="I19" s="175" t="s">
+      <c r="H19" s="187"/>
+      <c r="I19" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="176"/>
-      <c r="K19" s="156"/>
-      <c r="M19" s="163"/>
-      <c r="O19" s="154" t="s">
+      <c r="J19" s="187"/>
+      <c r="K19" s="166"/>
+      <c r="M19" s="172"/>
+      <c r="O19" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="154" t="s">
+      <c r="P19" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="154" t="s">
+      <c r="Q19" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="R19" s="154" t="s">
+      <c r="R19" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="S19" s="154" t="s">
+      <c r="S19" s="164" t="s">
         <v>28</v>
       </c>
       <c r="T19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="V19" s="154" t="s">
+      <c r="V19" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="W19" s="154" t="s">
+      <c r="W19" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="X19" s="154" t="s">
+      <c r="X19" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="Y19" s="154" t="s">
+      <c r="Y19" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="Z19" s="154" t="s">
+      <c r="Z19" s="164" t="s">
         <v>28</v>
       </c>
       <c r="AA19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AB19" s="161"/>
-    </row>
-    <row r="20" spans="1:28" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="167"/>
-      <c r="B20" s="167"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="174"/>
+      <c r="AB19" s="171"/>
+    </row>
+    <row r="20" spans="1:28" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="162"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="185"/>
       <c r="G20" s="94" t="s">
         <v>10</v>
       </c>
@@ -10790,17 +8995,17 @@
       <c r="M20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="155"/>
-      <c r="P20" s="155"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="155"/>
-      <c r="S20" s="155"/>
+      <c r="O20" s="165"/>
+      <c r="P20" s="165"/>
+      <c r="Q20" s="165"/>
+      <c r="R20" s="165"/>
+      <c r="S20" s="165"/>
       <c r="T20" s="19"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
-      <c r="Y20" s="155"/>
-      <c r="Z20" s="155"/>
+      <c r="V20" s="165"/>
+      <c r="W20" s="165"/>
+      <c r="X20" s="165"/>
+      <c r="Y20" s="165"/>
+      <c r="Z20" s="165"/>
       <c r="AA20" s="19" t="s">
         <v>20</v>
       </c>
@@ -10808,7 +9013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>1</v>
       </c>
@@ -10821,7 +9026,7 @@
       <c r="D21" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="177" t="s">
+      <c r="E21" s="184" t="s">
         <v>104</v>
       </c>
       <c r="F21" s="115">
@@ -10882,7 +9087,7 @@
         <v>3270887.1320000002</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2</v>
       </c>
@@ -10895,7 +9100,7 @@
       <c r="D22" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="177"/>
+      <c r="E22" s="184"/>
       <c r="F22" s="115">
         <v>45913</v>
       </c>
@@ -10954,7 +9159,7 @@
         <v>3550783.04</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>3</v>
       </c>
@@ -10967,7 +9172,7 @@
       <c r="D23" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="177"/>
+      <c r="E23" s="184"/>
       <c r="F23" s="115">
         <v>45910</v>
       </c>
@@ -11026,7 +9231,7 @@
         <v>253627.36000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>4</v>
       </c>
@@ -11039,7 +9244,7 @@
       <c r="D24" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="177"/>
+      <c r="E24" s="184"/>
       <c r="F24" s="115">
         <v>45927</v>
       </c>
@@ -11098,7 +9303,7 @@
         <v>283519.15600000002</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>5</v>
       </c>
@@ -11111,7 +9316,7 @@
       <c r="D25" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="177"/>
+      <c r="E25" s="184"/>
       <c r="F25" s="115">
         <v>45915</v>
       </c>
@@ -11170,7 +9375,7 @@
         <v>288954.02799999999</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>6</v>
       </c>
@@ -11244,7 +9449,7 @@
         <v>4491015.8959999997</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>7</v>
       </c>
@@ -11316,7 +9521,7 @@
         <v>1454734.0720000002</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>8</v>
       </c>
@@ -11388,7 +9593,7 @@
         <v>292577.27600000001</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>9</v>
       </c>
@@ -11460,7 +9665,7 @@
         <v>4481051.9639999997</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>10</v>
       </c>
@@ -11532,7 +9737,7 @@
         <v>2490983</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>11</v>
       </c>
@@ -11604,7 +9809,7 @@
         <v>244569.24000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>12</v>
       </c>
@@ -11676,7 +9881,7 @@
         <v>623198.65599999996</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8">
         <v>13</v>
       </c>
@@ -11732,7 +9937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="128">
@@ -11806,18 +10011,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="O18:T18"/>
-    <mergeCell ref="V18:AA18"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
     <mergeCell ref="AB18:AB19"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:H19"/>
@@ -11831,9 +10024,21 @@
     <mergeCell ref="Q19:Q20"/>
     <mergeCell ref="R19:R20"/>
     <mergeCell ref="S19:S20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="V19:V20"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:C27">
-    <cfRule type="containsText" dxfId="357" priority="1" operator="containsText" text="4DT6">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="4DT6">
       <formula>NOT(ISERROR(SEARCH("4DT6",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
